--- a/data/additional/single_annotated/full_nonfict/tsv/metadata.xlsx
+++ b/data/additional/single_annotated/full_nonfict/tsv/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\single_annotated\full_nonfict\xmi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\single_annotated\full_nonfict\tsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB67191-BE9B-4303-8771-4FFEAC502DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD51A9-8829-4C43-A8EE-46770CB9A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27555" yWindow="495" windowWidth="27450" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="2310" windowWidth="24660" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,51 +70,6 @@
     <t>quotes</t>
   </si>
   <si>
-    <t>rwz_full_grenz_10479.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_13.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_18399.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_20389.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_23110.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_3721.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_6595.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_grenz_7300.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_10107.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_10440.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_1098.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_2733.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_336.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_5884.xmi</t>
-  </si>
-  <si>
-    <t>rwz_full_mkhz_599.xmi</t>
-  </si>
-  <si>
     <t>mercury</t>
   </si>
   <si>
@@ -314,6 +269,51 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_10479.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_13.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_18399.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_20389.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_23110.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_3721.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_6595.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_grenz_7300.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_10107.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_10440.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_1098.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_2733.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_336.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_5884.tsv</t>
+  </si>
+  <si>
+    <t>rwz_full_mkhz_599.tsv</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,707 +775,707 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M2">
         <v>6609</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <v>9240</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M4">
         <v>7195</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
       <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M5">
         <v>4483</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
         <v>67</v>
       </c>
-      <c r="G6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s">
-        <v>82</v>
-      </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M6">
         <v>5091</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M7">
         <v>8039</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M8">
         <v>5833</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M9">
         <v>7071</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M10">
         <v>7131</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M11">
         <v>6257</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M12">
         <v>3175</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M13">
         <v>3356</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <v>3368</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M15">
         <v>5118</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M16">
         <v>4514</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/additional/single_annotated/full_nonfict/tsv/metadata.xlsx
+++ b/data/additional/single_annotated/full_nonfict/tsv/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\single_annotated\full_nonfict\tsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD51A9-8829-4C43-A8EE-46770CB9A144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A79ED-0F0D-4181-9413-11D2F47CA763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2310" windowWidth="24660" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="3075" windowWidth="24660" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
   <si>
     <t>file</t>
-  </si>
-  <si>
-    <t>timestamp</t>
   </si>
   <si>
     <t>annotator</t>
@@ -715,15 +712,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,713 +766,710 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2">
+        <v>6609</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2">
-        <v>6609</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
         <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3">
+        <v>79</v>
+      </c>
+      <c r="L3">
         <v>9240</v>
       </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4">
+        <v>7195</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5">
+        <v>4483</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6">
+        <v>5091</v>
+      </c>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7">
+        <v>8039</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8">
+        <v>5833</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9">
+        <v>7071</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4">
-        <v>7195</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10">
+        <v>7131</v>
+      </c>
+      <c r="M10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5">
-        <v>4483</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11">
+        <v>6257</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12">
+        <v>3175</v>
+      </c>
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6">
-        <v>5091</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7">
-        <v>8039</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8">
-        <v>5833</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13">
+        <v>3356</v>
+      </c>
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9">
-        <v>7071</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10">
-        <v>7131</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14">
+        <v>3368</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11">
-        <v>6257</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12">
-        <v>3175</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13">
-        <v>3356</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14">
-        <v>3368</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15">
+        <v>5118</v>
+      </c>
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15">
-        <v>5118</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16">
+        <v>79</v>
+      </c>
+      <c r="L16">
         <v>4514</v>
       </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
